--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAF42B5-E7A9-4A4B-B9D3-59C4A8D56F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9534C479-4B3C-41DC-812E-EF8F1923C155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>what</t>
   </si>
@@ -40,109 +40,91 @@
     <t>highlight</t>
   </si>
   <si>
-    <t>University of Nebraska-Lincoln</t>
-  </si>
-  <si>
     <t>North Platte, NE, US</t>
   </si>
   <si>
-    <t>Universidade Estadual Paulista Júlio de Mesquita Filho</t>
-  </si>
-  <si>
     <t>Botucatu, SP, BR</t>
   </si>
   <si>
     <t>Mar. 2016 - Feb. 2020</t>
   </si>
   <si>
-    <t>SIGA Consultoria agrícola</t>
-  </si>
-  <si>
     <t>Londrina, PR, BR</t>
   </si>
   <si>
     <t>Jun. 2015 - Feb. 2016</t>
   </si>
   <si>
-    <t>Consulting assistant</t>
-  </si>
-  <si>
-    <t>CIRAD Département Performances des systèmes de production et de transformation tropicaux</t>
-  </si>
-  <si>
     <t>Montpellier, LR, FR</t>
   </si>
   <si>
     <t>Feb. 2014 - Jun. 2016</t>
   </si>
   <si>
-    <t>Coordenação de Aperfeiçoamento de Pessoal de Nível Superior</t>
-  </si>
-  <si>
-    <t>CONSOAGRO - Empresa Jr. de Agronomia da Universidade Estadual de Londrina</t>
-  </si>
-  <si>
     <t>Mar. 2010 - Apr. 2014</t>
   </si>
   <si>
-    <t>Assistant | Marketing Director | Projects Director</t>
-  </si>
-  <si>
-    <t>Internship (Crop protection and Soil Management )</t>
-  </si>
-  <si>
     <t>Mar. 2010 - Jun. 2013</t>
   </si>
   <si>
-    <t>Research scholar (Système d'Analyse Régionale des Risques Agroclimatologiques)</t>
-  </si>
-  <si>
-    <t>Researcher scholar (Crop Protection)</t>
-  </si>
-  <si>
-    <t>Researcher scholar (Pesticide Application Technology Laboratory)</t>
-  </si>
-  <si>
     <t>Mar. 2020 - to present</t>
   </si>
   <si>
-    <t>Results: In addition to the field and laboratory activities, I also created the company's visual identity, developing document templates and PowerPoint presentations.</t>
-  </si>
-  <si>
-    <t>Results: I adapted the model for the Brazilian scenario, I also translated the site and user manuals for users of the Sarra-H model from French into Portuguese, facilitating its use by Portuguese speakers.</t>
-  </si>
-  <si>
-    <t>Functions: Field and greenhouse trials, statistical analysis, and articles productions</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Results: Helped in Dicamba field drifty studies, studies of weed management, and physical-chemical tank-mix interactions with technology application parameters.</t>
-  </si>
-  <si>
-    <t>Also the production of my Dissertation still in progress: Statistical analysis of herbicide interactions in the tank mixture.</t>
-  </si>
-  <si>
-    <t>Results: Conducted studies of weed management in Brazil and the physical properties of adjuvants in an herbicide tank mixture, resulting in five articles and one book chapter, my thesis, and also various abstracts and presentations at scientific meetings.</t>
-  </si>
-  <si>
-    <t>Functions: Assistance in agronomic events and consulting projects. Represent the company before society, marketing coordination, and project management.</t>
-  </si>
-  <si>
-    <t>Functions: Develop research projects, implement them, and carry out completion reports. As well as assisting graduate students in their research projects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functions: Improvements in tropical agriculture model SARRA-H </t>
-  </si>
-  <si>
-    <t>Functions: Monitoring of soybean diseases using the SIGA spore collector, monitoring of agricultural pests, and positioning of pesticides.</t>
-  </si>
-  <si>
     <t>Results: My team developed all the marketing, social media, website, and standard arts of the company. In the project section, my team structured the company's social projects and we were also responsible for the first technical consultancy carried out by the junior company.</t>
   </si>
   <si>
-    <t>Results: I assisted in weed control and cover crop management projects, resulting in two book chapters, an article, and some abstracts and presentations at scientific meetings.</t>
+    <t>Results: Helped in Dicamba field drifty studies, studies of weed management, and physical-chemical tank-mix interactions with technology application parameters. Also the production of my Dissertation still in progress: Statistical analysis of herbicide interactions in the tank mixture.</t>
+  </si>
+  <si>
+    <t>Functions: Monitoring weeds and recomendantion of pesticides.</t>
+  </si>
+  <si>
+    <t>Functions: Conduct research projects and assist graduate students.</t>
+  </si>
+  <si>
+    <t>Grade Student - Universidade Estadual Paulista Júlio de Mesquita Filho</t>
+  </si>
+  <si>
+    <t>Consulting assistant - SIGA Consultoria agrícola</t>
+  </si>
+  <si>
+    <t>Functions: Functions: Develop research projects, statistical analysis, articles productions and assist grade/undergrad students in their projects.</t>
+  </si>
+  <si>
+    <t>Functions: Develop research projects, statistical analysis, articles productions and assist grade/undergrad students in their projects.</t>
+  </si>
+  <si>
+    <t>Results: I adapted the model for the Brazilian and Africa scenario, I also translated the site and user manuals for users of the Sarra-H model from French into Portuguese, facilitating its use by Portuguese speakers.</t>
+  </si>
+  <si>
+    <t>Functions: Improvements in tropical agriculture model SARRA-H.</t>
+  </si>
+  <si>
+    <t>Functions: Assistance in agronomic events and assist in agricultural projects.</t>
+  </si>
+  <si>
+    <t>Researcher scholar - Pesticide Application Technology LAB (University of Nebraska-Lincoln)</t>
+  </si>
+  <si>
+    <t>Research scholar - CIRAD (Département Performances des systèmes de production et de transformation tropicaux)</t>
+  </si>
+  <si>
+    <t>Internship - CAPES (Coordenação de Aperfeiçoamento de Pessoal de Nível Superior)</t>
+  </si>
+  <si>
+    <t>Assistant | Marketing Director | Projects Director - CONSOAGRO (Empresa Jr. de Agronomia da Universidade Estadual de Londrina)</t>
+  </si>
+  <si>
+    <t>Results: In addition to the field and laboratory activities, I also created the company's visual identity, developing document templates and presentations.</t>
+  </si>
+  <si>
+    <t>Results: I assisted in weed control and cover crop management projects, resulting in two book chapters, an article, and some posters and presentations at scientific meetings.</t>
+  </si>
+  <si>
+    <t>Results: Conducted studies of weed management in Brazil and the physical properties of adjuvants in an herbicide tank mixture, resulting in five articles and one book chapter, my thesis, and also various posters and presentations at scientific meetings.</t>
   </si>
 </sst>
 </file>
@@ -194,12 +176,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,15 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
@@ -516,188 +501,142 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="E3" t="s">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{523E9595-68E6-4D4F-B80E-68A874BA172F}"/>
-    <hyperlink ref="C5" r:id="rId2" location="!/international/eng/" xr:uid="{E146CC87-505E-4CD9-ADBA-3C9790E51CDD}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{BBAC7A7D-A170-48CC-AE64-C646CE959462}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{59324D62-E64D-42EE-B7D3-ADAC0C7483B3}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{BEC874FF-9698-476E-B6A6-61B44A6AC192}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{62D617A8-A071-4CE2-ADA4-AB099007351F}"/>
+    <hyperlink ref="C2" r:id="rId1" display="University of Nebraska-Lincoln" xr:uid="{523E9595-68E6-4D4F-B80E-68A874BA172F}"/>
+    <hyperlink ref="C3" r:id="rId2" location="!/international/eng/" display="Universidade Estadual Paulista Júlio de Mesquita Filho" xr:uid="{E146CC87-505E-4CD9-ADBA-3C9790E51CDD}"/>
+    <hyperlink ref="C4" r:id="rId3" display="SIGA Consultoria agrícola" xr:uid="{BBAC7A7D-A170-48CC-AE64-C646CE959462}"/>
+    <hyperlink ref="C5" r:id="rId4" display="CIRAD Département Performances des systèmes de production et de transformation tropicaux" xr:uid="{59324D62-E64D-42EE-B7D3-ADAC0C7483B3}"/>
+    <hyperlink ref="C7" r:id="rId5" display="CONSOAGRO - Empresa Jr. de Agronomia da Universidade Estadual de Londrina" xr:uid="{BEC874FF-9698-476E-B6A6-61B44A6AC192}"/>
+    <hyperlink ref="C6" r:id="rId6" display="Coordenação de Aperfeiçoamento de Pessoal de Nível Superior" xr:uid="{62D617A8-A071-4CE2-ADA4-AB099007351F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
